--- a/20210318_專案即時回覆系統_資料庫結構_V1.3_Wade.xlsx
+++ b/20210318_專案即時回覆系統_資料庫結構_V1.3_Wade.xlsx
@@ -139,105 +139,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>成績ID(GradeID) int identity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班別(ClassNumber) Char(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授權碼(License) Char(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限(Privilege) Varchar(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">建立時間(CreateDate) DateTime </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立者(WhoCreate) Nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號(Account)  VarChar(255) allowNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名(Name) NVarChar(50) allowNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話號碼(Phone) Char(10) allowNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電子郵件(Mail) VarChar(255) allowNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LineID(LineID) VarChar(255) allowNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案名(ProjectName) NVarChar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小組ID(TeamID) int Identity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小組名稱(TeamName) NVarChar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時程期限(DeadLine) DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案存放處(FilePlace) ? allowNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案ID(ProjectID) int Identity</t>
+  </si>
+  <si>
+    <t>專案名(ProjectName) NVarChar(50)</t>
+  </si>
+  <si>
+    <t>小組ID(TeamID) int Identity</t>
+  </si>
+  <si>
+    <t>小組名稱(TeamName) NVarChar(50)</t>
+  </si>
+  <si>
+    <t>專案進度(Schedule) Float allowNull</t>
+  </si>
+  <si>
+    <t>時程期限(DeadLine) DateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建立時間(CreateDate) DateTime </t>
+  </si>
+  <si>
+    <t>建立者(WhoCreate) Nvarchar(50)</t>
+  </si>
+  <si>
+    <t>刪除時間(DeleteDate) DateTime allowNull</t>
+  </si>
+  <si>
+    <t>刪除者(WhoDelete) Nvarchar(50) allowNull</t>
+  </si>
+  <si>
+    <t>工作項目ID(WorkID) Varchar(255)  allowNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>工作項目ID(WorkID) int Identity</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成績ID(GradeID) int identity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班別(ClassNumber) Char(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授權碼(License) Char(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限(Privilege) Varchar(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">建立時間(CreateDate) DateTime </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立者(WhoCreate) Nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳號(Account)  VarChar(255) allowNull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名(Name) NVarChar(50) allowNull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電話號碼(Phone) Char(10) allowNull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電子郵件(Mail) VarChar(255) allowNull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LineID(LineID) VarChar(255) allowNull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>專案名(ProjectName) NVarChar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小組ID(TeamID) int Identity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小組名稱(TeamName) NVarChar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時程期限(DeadLine) DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>檔案存放處(FilePlace) ? allowNull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>專案ID(ProjectID) int Identity</t>
-  </si>
-  <si>
-    <t>專案名(ProjectName) NVarChar(50)</t>
-  </si>
-  <si>
-    <t>小組ID(TeamID) int Identity</t>
-  </si>
-  <si>
-    <t>小組名稱(TeamName) NVarChar(50)</t>
-  </si>
-  <si>
-    <t>工作項目ID(WorkID)  allowNull</t>
-  </si>
-  <si>
-    <t>專案進度(Schedule) Float allowNull</t>
-  </si>
-  <si>
-    <t>時程期限(DeadLine) DateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">建立時間(CreateDate) DateTime </t>
-  </si>
-  <si>
-    <t>建立者(WhoCreate) Nvarchar(50)</t>
-  </si>
-  <si>
-    <t>刪除時間(DeleteDate) DateTime allowNull</t>
-  </si>
-  <si>
-    <t>刪除者(WhoDelete) Nvarchar(50) allowNull</t>
   </si>
 </sst>
 </file>
@@ -623,28 +624,28 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
       <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
       </c>
       <c r="J1" t="s">
         <v>28</v>
@@ -659,13 +660,13 @@
         <v>23</v>
       </c>
       <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>36</v>
       </c>
       <c r="Q1" t="s">
         <v>2</v>
@@ -685,7 +686,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -708,13 +709,13 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
@@ -723,13 +724,13 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
         <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>36</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -745,37 +746,37 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +790,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C1" sqref="C1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -816,7 +817,7 @@
         <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -828,7 +829,7 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -881,7 +882,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
